--- a/src/main/resources/csv/spell.xlsx
+++ b/src/main/resources/csv/spell.xlsx
@@ -97,11 +97,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,45 +111,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,15 +148,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,55 +215,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,49 +263,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,133 +425,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,56 +454,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -538,6 +481,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -561,151 +534,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,7 +1026,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1316,7 +1309,7 @@
         <v>30</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>2</v>

--- a/src/main/resources/csv/spell.xlsx
+++ b/src/main/resources/csv/spell.xlsx
@@ -96,9 +96,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -111,12 +111,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -125,7 +209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,108 +231,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,78 +263,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,108 +444,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +454,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,6 +511,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -513,30 +546,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -545,25 +554,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,19 +572,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,112 +593,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1071,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>

--- a/src/main/resources/csv/spell.xlsx
+++ b/src/main/resources/csv/spell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>speelId</t>
   </si>
@@ -34,7 +34,7 @@
     <t>coolDown</t>
   </si>
   <si>
-    <t>school</t>
+    <t>school（类别）</t>
   </si>
   <si>
     <t>type</t>
@@ -43,6 +43,9 @@
     <t>range</t>
   </si>
   <si>
+    <t>sec（表示技能的持续时间，护盾技能为有效时间）</t>
+  </si>
+  <si>
     <t>普通攻击</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
   </si>
   <si>
     <t>奥数飞弹</t>
+  </si>
+  <si>
+    <t>魔法护盾</t>
   </si>
   <si>
     <t>暗影箭</t>
@@ -96,9 +102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -110,8 +116,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,6 +184,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -134,9 +238,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,112 +259,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -263,6 +269,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -275,175 +431,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +460,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,37 +523,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,15 +533,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,10 +554,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -560,10 +566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,133 +578,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,15 +1029,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="7" max="7" width="17.3888888888889" customWidth="1"/>
+    <col min="10" max="10" width="60.5740740740741" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1059,13 +1069,16 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1088,13 +1101,16 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1117,13 +1133,16 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1146,13 +1165,16 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1175,13 +1197,16 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>10005</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1204,13 +1229,16 @@
       <c r="I6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>10006</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1233,13 +1261,16 @@
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>10020</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1262,13 +1293,16 @@
       <c r="I9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>10021</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1291,19 +1325,22 @@
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10022</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -1320,13 +1357,16 @@
       <c r="I11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10023</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1349,13 +1389,16 @@
       <c r="I12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>10024</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1378,13 +1421,16 @@
       <c r="I13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>10025</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1407,86 +1453,63 @@
       <c r="I14">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>10026</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>102</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
         <v>10050</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>30</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>2</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>111</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>10051</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>60</v>
-      </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>111</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>10052</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>500</v>
-      </c>
-      <c r="E18">
-        <v>300</v>
-      </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
       <c r="G18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>111</v>
@@ -1494,10 +1517,13 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
-        <v>10053</v>
+        <v>10051</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -1506,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -1523,10 +1549,13 @@
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
-        <v>10054</v>
+        <v>10052</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -1535,13 +1564,13 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E20">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -1552,10 +1581,13 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
-        <v>10055</v>
+        <v>10053</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -1564,13 +1596,13 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E21">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -1579,7 +1611,74 @@
         <v>111</v>
       </c>
       <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>10054</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>111</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>10055</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>90</v>
+      </c>
+      <c r="E23">
+        <v>300</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>111</v>
+      </c>
+      <c r="I23">
         <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/csv/spell.xlsx
+++ b/src/main/resources/csv/spell.xlsx
@@ -104,13 +104,111 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -124,6 +222,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -132,73 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -213,52 +259,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -269,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +460,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,17 +498,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,17 +517,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,25 +560,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,133 +578,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:10">

--- a/src/main/resources/csv/spell.xlsx
+++ b/src/main/resources/csv/spell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347"/>
+    <workbookView windowWidth="15791" windowHeight="8244"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,8 +104,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,6 +125,59 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,26 +191,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,15 +222,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,21 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -222,39 +252,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,17 +487,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,35 +546,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,145 +566,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,8 +1031,8 @@
   <sheetPr/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="H10">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="H11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1416,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="H13">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -1448,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="H14">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1480,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I15">
         <v>1</v>

--- a/src/main/resources/csv/spell.xlsx
+++ b/src/main/resources/csv/spell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15791" windowHeight="8244"/>
+    <workbookView windowWidth="22488" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>speelId</t>
   </si>
@@ -46,6 +46,12 @@
     <t>sec（表示技能的持续时间，护盾技能为有效时间）</t>
   </si>
   <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>如果是召唤技能，那么召唤的单位攻击力为damage， 血量为sec</t>
+  </si>
+  <si>
     <t>普通攻击</t>
   </si>
   <si>
@@ -95,6 +101,12 @@
   </si>
   <si>
     <t>地狱烈焰</t>
+  </si>
+  <si>
+    <t>神圣祝福</t>
+  </si>
+  <si>
+    <t>动物伙伴</t>
   </si>
 </sst>
 </file>
@@ -103,8 +115,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -117,32 +129,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,9 +142,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,7 +165,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,18 +187,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,22 +204,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +218,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -254,7 +235,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,31 +281,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,151 +449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +472,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,15 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -513,30 +564,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -545,31 +572,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,138 +590,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1029,19 +1044,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="7" max="7" width="17.3888888888889" customWidth="1"/>
-    <col min="10" max="10" width="60.5740740740741" customWidth="1"/>
+    <col min="10" max="10" width="46.462962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1072,19 +1087,27 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1104,13 +1127,16 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1136,13 +1162,16 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1168,13 +1197,16 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1200,13 +1232,16 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>10005</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1232,13 +1267,16 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>10006</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1264,19 +1302,22 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>10020</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1296,13 +1337,16 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>10021</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1328,13 +1372,16 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10022</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1355,18 +1402,21 @@
         <v>103</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>10023</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1392,13 +1442,16 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>10024</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1424,13 +1477,16 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>10025</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1456,13 +1512,16 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>10026</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1488,13 +1547,16 @@
       <c r="J15">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>10050</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1520,13 +1582,16 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>10051</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1552,13 +1617,16 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>10052</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1584,13 +1652,16 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>10053</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1616,13 +1687,16 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>10054</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1648,13 +1722,16 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>10055</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1680,8 +1757,154 @@
       <c r="J23">
         <v>0</v>
       </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>10061</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>104</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>10062</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>104</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>10071</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>102</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>10072</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>200</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>102</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>300</v>
+      </c>
+      <c r="K31">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/resources/csv/spell.xlsx
+++ b/src/main/resources/csv/spell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347"/>
+    <workbookView windowWidth="20448" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,20 +144,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,6 +165,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -195,8 +219,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,29 +243,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -241,11 +250,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,15 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,6 +281,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,43 +425,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,127 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,6 +472,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -493,23 +508,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,15 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -558,6 +549,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,133 +590,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,8 +1046,8 @@
   <sheetPr/>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
